--- a/Shading Trees/my_graphs/FAO Land Change by Activities.xlsx
+++ b/Shading Trees/my_graphs/FAO Land Change by Activities.xlsx
@@ -414,10 +414,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-0.008681703800263563</v>
+        <v>0.0007339955735474746</v>
       </c>
       <c r="C2">
-        <v>-0.0007933282005230247</v>
+        <v>6.707201730815626E-05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,10 +425,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.02074264759045263</v>
+        <v>4.519279841019852E-06</v>
       </c>
       <c r="C3">
-        <v>0.00598198885559853</v>
+        <v>1.303318754253269E-06</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1610695607281087</v>
+        <v>1.015056969322359E-05</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,10 +447,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-0.008386191899215412</v>
+        <v>5.819686439867411E-06</v>
       </c>
       <c r="C5">
-        <v>-0.0007663245235852156</v>
+        <v>5.31798996672439E-07</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,10 +458,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.2743225676322254</v>
+        <v>0.08840643061046194</v>
       </c>
       <c r="C6">
-        <v>-0.02506740568984611</v>
+        <v>0.00807851752915667</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -469,10 +469,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-0.1142401767092451</v>
+        <v>0.01880702978905902</v>
       </c>
       <c r="C7">
-        <v>-0.003651936792607557</v>
+        <v>0.001220946709679538</v>
       </c>
     </row>
   </sheetData>
